--- a/Employee_Reports35/Mohamed Faizal Mohamed Uvais Q0493.xlsx
+++ b/Employee_Reports35/Mohamed Faizal Mohamed Uvais Q0493.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,14 +462,14 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1273,41 +1273,53 @@
       <c r="K17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>05-Apr-2025</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>05-Apr-2026</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>153</v>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>03-Oct-2024</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>03-Oct-2025</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>-32</v>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1315,24 +1327,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-041</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr">
         <is>
           <t>05-Apr-2025</t>
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-003</t>
+          <t>LSME-CRG-SOP-041</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1384,20 +1384,20 @@
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-009</t>
+          <t>LSME-CRG-SOP-003</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1442,11 +1442,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-010</t>
+          <t>LSME-CRG-SOP-009</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1491,11 +1491,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-011</t>
+          <t>LSME-CRG-SOP-010</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1531,20 +1531,20 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2025</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2026</t>
+          <t>26-Jul-2026</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-018</t>
+          <t>LSME-CRG-SOP-011</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1589,11 +1589,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1609,28 +1609,40 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr"/>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2024</t>
+          <t>16-Aug-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2026</t>
+          <t>16-Aug-2026</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1646,7 +1658,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Material request Procedure (Other Trainings)</t>
+          <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -1654,28 +1666,65 @@
       <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr">
         <is>
+          <t>26-Aug-2024</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>26-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>295</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Material request Procedure (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
           <t>17-Nov-2024</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>17-Nov-2026</t>
         </is>
       </c>
-      <c r="H26" s="3" t="n">
-        <v>379</v>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="n">
+        <v>378</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Mohamed Faizal Mohamed Uvais Q0493.xlsx
+++ b/Employee_Reports35/Mohamed Faizal Mohamed Uvais Q0493.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1393,11 +1393,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1442,11 +1442,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1491,11 +1491,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1589,11 +1589,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1638,11 +1638,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1675,11 +1675,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1712,11 +1712,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
